--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB4AD22-8907-4657-9324-460569B2B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1677E-B93E-4F7F-A495-56E539DBA7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="170">
   <si>
     <t>field</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>1/rad</t>
-  </si>
-  <si>
-    <t>Aircraft.Geometry.Wing.mac</t>
   </si>
   <si>
     <t>Aircraft.Certification.Aerodynamic_data.Max_Lift_Coefficient</t>
@@ -986,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1083,7 +1080,7 @@
         <v>3.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1094,29 +1091,29 @@
         <v>-1.5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>1.58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1127,7 +1124,7 @@
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1138,19 +1135,12 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.498</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
@@ -1160,7 +1150,7 @@
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1171,12 +1161,12 @@
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8">
         <v>5.2339000000000002</v>
@@ -1187,46 +1177,46 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>2.589</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>5.2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>10.446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1242,905 +1232,905 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>0.25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0.52900000000000003</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>1.492</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>2.8839999999999999</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0.33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0.05</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="9">
         <v>0.8</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="9">
         <f>[1]Aircraft!$K$24</f>
         <v>0.82195210959999987</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="9">
         <v>1.5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>-0.261519</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>0.498</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>0.498</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>0.14069999999999999</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>0.90800000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>0.154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>1.9E-2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>1.63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>2.5379999999999998</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>0.627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>0.6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>1.6379999999999999</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>0.16500000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>0.2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67">
         <v>1.49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68">
         <f>B59+B67</f>
         <v>3.1280000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>0.15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>1.496</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>0.31359999999999999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72">
         <v>0.39290000000000003</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>0.1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78">
         <v>0.9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C85" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C88" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>1300</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91">
         <v>3500</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
         <v>112</v>
-      </c>
-      <c r="B97" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101">
         <v>1.4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102">
         <v>18.5</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103">
         <v>4.5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2148,18 +2138,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
@@ -2170,7 +2160,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
@@ -2181,95 +2171,95 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B112">
         <v>2.1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B114">
         <v>0.12</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B115">
         <v>0.35</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B116">
         <v>0.12</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B117">
         <v>0.8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B118">
         <v>0.126</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
@@ -2280,7 +2270,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
@@ -2291,95 +2281,95 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B125">
         <v>0.35</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B126">
         <v>0.12</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B127">
         <v>0.8</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128">
         <v>25</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
@@ -2390,7 +2380,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
@@ -2401,134 +2391,134 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131">
         <v>0.31</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B132">
         <v>0.31</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B133">
         <v>0.39290000000000003</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134">
         <v>0.31359999999999999</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B135">
         <v>0.34</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136">
         <v>0.36</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B137">
         <v>0.31359999999999999</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B138">
         <v>0.15347</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B139">
         <v>0.45</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140">
         <v>0.5</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B141">
         <v>0.1</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B142">
         <v>0.9</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2538,15 +2528,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2704,6 +2685,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2711,14 +2701,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2736,6 +2718,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1677E-B93E-4F7F-A495-56E539DBA7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E39845-21E4-40CF-9041-649CEEAD7E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="172">
   <si>
     <t>field</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>eta_outer_rudder</t>
+  </si>
+  <si>
+    <t>c_kink_one</t>
+  </si>
+  <si>
+    <t>c_kink_two</t>
   </si>
 </sst>
 </file>
@@ -981,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2521,6 +2527,28 @@
         <v>116</v>
       </c>
     </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143">
+        <v>0.498</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144">
+        <v>0.498</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2528,6 +2556,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2685,15 +2722,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2701,6 +2729,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2718,14 +2754,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E39845-21E4-40CF-9041-649CEEAD7E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D52D93C-88D1-4664-AB0C-4E67A71FEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="174">
   <si>
     <t>field</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>c_kink_two</t>
+  </si>
+  <si>
+    <t>wing_type</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
   </si>
 </sst>
 </file>
@@ -987,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2549,6 +2555,14 @@
         <v>153</v>
       </c>
     </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2556,15 +2570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2722,6 +2727,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2729,14 +2743,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2754,6 +2760,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D52D93C-88D1-4664-AB0C-4E67A71FEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E8C98-B92B-4363-A3D7-A39B5BC09066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="180">
   <si>
     <t>field</t>
   </si>
@@ -556,6 +556,24 @@
   </si>
   <si>
     <t>Rectangular</t>
+  </si>
+  <si>
+    <t>vertical_flag</t>
+  </si>
+  <si>
+    <t>Double fin</t>
+  </si>
+  <si>
+    <t>panel_span1</t>
+  </si>
+  <si>
+    <t>Semispan percentage</t>
+  </si>
+  <si>
+    <t>panel_span2</t>
+  </si>
+  <si>
+    <t>panel_span3</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2555,12 +2573,53 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B145" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147">
+        <v>0.33</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148">
+        <v>0.33</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149">
+        <v>0.33</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2570,6 +2629,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2727,15 +2795,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2743,6 +2802,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2760,14 +2827,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E8C98-B92B-4363-A3D7-A39B5BC09066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75EC1CBA-1375-4D93-B2C3-F821BD3EF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
   <si>
     <t>field</t>
   </si>
@@ -574,6 +574,18 @@
   </si>
   <si>
     <t>panel_span3</t>
+  </si>
+  <si>
+    <t>horizontal_tail_damping_factor</t>
+  </si>
+  <si>
+    <t>airfoil_name</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>E216_104.dat</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2620,6 +2632,28 @@
       </c>
       <c r="C149" s="7" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150">
+        <v>0.3</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75EC1CBA-1375-4D93-B2C3-F821BD3EF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FB0DDB-C713-4C6F-B5EA-B541481D88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
   <si>
     <t>field</t>
   </si>
@@ -579,13 +579,22 @@
     <t>horizontal_tail_damping_factor</t>
   </si>
   <si>
-    <t>airfoil_name</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>E216_104.dat</t>
+  </si>
+  <si>
+    <t>airfoil_first_panel</t>
+  </si>
+  <si>
+    <t>airfoil_third_panel</t>
+  </si>
+  <si>
+    <t>airfoil_sec_panel</t>
+  </si>
+  <si>
+    <t>airfoil_fourth_panel</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2647,13 +2656,46 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B151" t="s">
-        <v>183</v>
-      </c>
-      <c r="C151" s="7" t="s">
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" t="s">
         <v>182</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2663,15 +2705,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2829,6 +2862,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2836,14 +2878,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2861,6 +2895,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FB0DDB-C713-4C6F-B5EA-B541481D88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFF1FC-7979-4CF5-AA0C-98F8EFAD8CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
   <si>
     <t>field</t>
   </si>
@@ -595,6 +595,33 @@
   </si>
   <si>
     <t>airfoil_fourth_panel</t>
+  </si>
+  <si>
+    <t>sweep_first</t>
+  </si>
+  <si>
+    <t>sweep_second</t>
+  </si>
+  <si>
+    <t>sweep_third</t>
+  </si>
+  <si>
+    <t>dihedral_first</t>
+  </si>
+  <si>
+    <t>dihedral_second</t>
+  </si>
+  <si>
+    <t>dihedral_third</t>
+  </si>
+  <si>
+    <t>twist_angle_second</t>
+  </si>
+  <si>
+    <t>twist_angle_third</t>
+  </si>
+  <si>
+    <t>twist_angle_fourth</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2698,6 +2725,105 @@
         <v>181</v>
       </c>
     </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2705,6 +2831,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2862,15 +2997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2878,6 +3004,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2895,14 +3029,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DFF1FC-7979-4CF5-AA0C-98F8EFAD8CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651CEE1-D691-450A-A311-C1465815B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,7 +1523,7 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>155</v>
@@ -2796,7 +2796,7 @@
         <v>193</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>156</v>
@@ -2807,7 +2807,7 @@
         <v>194</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>156</v>
@@ -2818,7 +2818,7 @@
         <v>195</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>156</v>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651CEE1-D691-450A-A311-C1465815B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8F2B1-8A1A-412E-BC6D-8B6CF9D97363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="202">
   <si>
     <t>field</t>
   </si>
@@ -622,6 +622,24 @@
   </si>
   <si>
     <t>twist_angle_fourth</t>
+  </si>
+  <si>
+    <t>vertical_sweep</t>
+  </si>
+  <si>
+    <t>sweep_loc_vert</t>
+  </si>
+  <si>
+    <t>sec_sweeploc_vert</t>
+  </si>
+  <si>
+    <t>vertical_dihedral</t>
+  </si>
+  <si>
+    <t>vertical_twist</t>
+  </si>
+  <si>
+    <t>ver_twist_loc</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2824,6 +2842,72 @@
         <v>156</v>
       </c>
     </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B164">
+        <v>20</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>198</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2831,15 +2915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -2997,6 +3072,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3004,14 +3088,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3029,6 +3105,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8F2B1-8A1A-412E-BC6D-8B6CF9D97363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7323B3C8-1DE1-4E0E-928B-E946D7CD2443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
   <si>
     <t>field</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Aircraft.Geometry.Wing.camberloc</t>
   </si>
   <si>
-    <t>Percentage</t>
-  </si>
-  <si>
     <t>Aircraft.Geometry.Wing.thickchord</t>
   </si>
   <si>
@@ -640,6 +637,30 @@
   </si>
   <si>
     <t>ver_twist_loc</t>
+  </si>
+  <si>
+    <t>vertical_x_leadingedge</t>
+  </si>
+  <si>
+    <t>fus length percentage</t>
+  </si>
+  <si>
+    <t>vertical_croot</t>
+  </si>
+  <si>
+    <t>vertical_ctip</t>
+  </si>
+  <si>
+    <t>vertical_xtip_leadingedge</t>
+  </si>
+  <si>
+    <t>vertical_span</t>
+  </si>
+  <si>
+    <t>vertical_z_position</t>
+  </si>
+  <si>
+    <t>fus diameter percentage</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,7 +1197,7 @@
         <v>3.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1187,7 +1208,7 @@
         <v>-1.5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1198,7 +1219,7 @@
         <v>1.58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1209,7 +1230,7 @@
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1220,7 +1241,7 @@
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1231,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1246,7 +1267,7 @@
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1257,7 +1278,7 @@
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1279,7 +1300,7 @@
         <v>2.589</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1290,7 +1311,7 @@
         <v>5.2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1301,7 +1322,7 @@
         <v>10.446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1334,7 +1355,7 @@
         <v>0.25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1345,7 +1366,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1356,7 +1377,7 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1367,7 +1388,7 @@
         <v>1.492</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1378,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1389,7 +1410,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1400,7 +1421,7 @@
         <v>2.8839999999999999</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1411,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1422,7 +1443,7 @@
         <v>0.33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1433,7 +1454,7 @@
         <v>0.05</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1444,7 +1465,7 @@
         <v>0.8</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1456,7 +1477,7 @@
         <v>0.82195210959999987</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1467,7 +1488,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1478,7 +1499,7 @@
         <v>-0.261519</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1489,7 +1510,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1500,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1511,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1522,7 +1543,7 @@
         <v>0.498</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1533,7 +1554,7 @@
         <v>0.498</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1544,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1555,7 +1576,7 @@
         <v>0.14069999999999999</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1566,7 +1587,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1577,7 +1598,7 @@
         <v>0.154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1588,7 +1609,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1599,7 +1620,7 @@
         <v>1.63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1610,7 +1631,7 @@
         <v>2.5379999999999998</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1621,7 +1642,7 @@
         <v>0.627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1632,7 +1653,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1654,7 +1675,7 @@
         <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1665,7 +1686,7 @@
         <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1676,7 +1697,7 @@
         <v>0.6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1687,305 +1708,305 @@
         <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>1.6379999999999999</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>0.16500000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>0.2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64">
         <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>1.49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <f>B59+B67</f>
         <v>3.1280000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69">
         <v>0.15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>1.496</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71">
         <v>0.31359999999999999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72">
         <v>0.39290000000000003</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77">
         <v>0.1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78">
         <v>0.9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79">
         <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1996,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2007,7 +2028,7 @@
         <v>26</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2018,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2029,138 +2050,138 @@
         <v>30</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90">
         <v>1300</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91">
         <v>3500</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93">
         <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
         <v>111</v>
-      </c>
-      <c r="B97" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101">
         <v>1.4</v>
@@ -2171,7 +2192,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102">
         <v>18.5</v>
@@ -2182,7 +2203,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103">
         <v>4.5</v>
@@ -2193,40 +2214,40 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2234,18 +2255,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
@@ -2256,7 +2277,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
@@ -2267,95 +2288,95 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112">
         <v>2.1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114">
         <v>0.12</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115">
         <v>0.35</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116">
         <v>0.12</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117">
         <v>0.8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118">
         <v>0.126</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
@@ -2366,7 +2387,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
@@ -2377,95 +2398,95 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B125">
         <v>0.35</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B126">
         <v>0.12</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127">
         <v>0.8</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B128">
         <v>25</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
@@ -2476,7 +2497,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
@@ -2487,425 +2508,491 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B131">
         <v>0.31</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B132">
         <v>0.31</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133">
         <v>0.39290000000000003</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134">
         <v>0.31359999999999999</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135">
         <v>0.34</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B136">
         <v>0.36</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137">
         <v>0.31359999999999999</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B138">
         <v>0.15347</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B139">
         <v>0.45</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140">
         <v>0.5</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141">
         <v>0.1</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142">
         <v>0.9</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143">
         <v>0.498</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144">
         <v>0.498</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B145" t="s">
         <v>172</v>
-      </c>
-      <c r="B145" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" t="s">
         <v>174</v>
-      </c>
-      <c r="B146" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147">
         <v>0.33</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B148">
         <v>0.33</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149">
         <v>0.33</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B150">
         <v>0.3</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B164">
         <v>20</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B170">
+        <v>0.95</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B172">
+        <v>0.15347250000000001</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>205</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B174">
+        <v>0.437502</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>207</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2915,6 +3002,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -3072,15 +3168,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3088,6 +3175,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3105,14 +3200,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7323B3C8-1DE1-4E0E-928B-E946D7CD2443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E822981-A47D-4256-92A0-BA90A59CAA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
   <si>
     <t>field</t>
   </si>
@@ -661,6 +661,18 @@
   </si>
   <si>
     <t>fus diameter percentage</t>
+  </si>
+  <si>
+    <t>flaps_eta_iniziale</t>
+  </si>
+  <si>
+    <t>flaps_eta_finale</t>
+  </si>
+  <si>
+    <t>flaps_y_iniziale</t>
+  </si>
+  <si>
+    <t>flaps_y_finale</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2995,6 +3007,52 @@
         <v>208</v>
       </c>
     </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176">
+        <v>0.1</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>210</v>
+      </c>
+      <c r="B177">
+        <v>0.625</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B178">
+        <f>B176*B19*0.5</f>
+        <v>0.26</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>212</v>
+      </c>
+      <c r="B179">
+        <f>B177*0.5*B19</f>
+        <v>1.625</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3002,15 +3060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -3168,6 +3217,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3175,14 +3233,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3200,6 +3250,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E822981-A47D-4256-92A0-BA90A59CAA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C755B4-C495-472F-BB9B-BA586229614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="220">
   <si>
     <t>field</t>
   </si>
@@ -673,6 +673,27 @@
   </si>
   <si>
     <t>flaps_y_finale</t>
+  </si>
+  <si>
+    <t>flaps_span_b</t>
+  </si>
+  <si>
+    <t>cf_c_root_flap</t>
+  </si>
+  <si>
+    <t>cf_c_tip_flap</t>
+  </si>
+  <si>
+    <t>croot_flap</t>
+  </si>
+  <si>
+    <t>ctip_flap</t>
+  </si>
+  <si>
+    <t>cf_flap</t>
+  </si>
+  <si>
+    <t>flap_surface_S</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3053,6 +3074,88 @@
         <v>152</v>
       </c>
     </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B180">
+        <f>B179-B178</f>
+        <v>1.365</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>214</v>
+      </c>
+      <c r="B181">
+        <v>0.31</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B182">
+        <v>0.31</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>216</v>
+      </c>
+      <c r="B183">
+        <f>B181*B42</f>
+        <v>0.15437999999999999</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B184">
+        <f>B43*B182</f>
+        <v>0.15437999999999999</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>218</v>
+      </c>
+      <c r="B185">
+        <f>B184</f>
+        <v>0.15437999999999999</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B186">
+        <f>B185*B180</f>
+        <v>0.21072869999999999</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3060,6 +3163,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -3217,15 +3329,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3233,6 +3336,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3250,14 +3361,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C755B4-C495-472F-BB9B-BA586229614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE699CD-9160-4D4A-B4E5-192ACB8DBF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE699CD-9160-4D4A-B4E5-192ACB8DBF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18C06F-2AAD-4839-B56C-D9C9058B04F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>115</v>
@@ -3163,15 +3163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -3329,6 +3320,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3336,14 +3336,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3361,6 +3353,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18C06F-2AAD-4839-B56C-D9C9058B04F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F516828-D1E7-402E-A915-1E66FD5EF42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>115</v>
@@ -1518,7 +1518,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="9">
-        <v>1.5</v>
+        <v>1.4327000000000001</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>115</v>
@@ -3163,6 +3163,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100018B9E05534DD346B4DB939BB590FD48" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8afdbf8cd4174fbe595e5fb01abe9bda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90b0c0e5-2a5e-433a-b810-f67928ad9d5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30426a273519c332a31754524c74ef77" ns2:_="">
     <xsd:import namespace="90b0c0e5-2a5e-433a-b810-f67928ad9d5b"/>
@@ -3320,22 +3335,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC2AD5F-F27B-4C05-A0BD-369CF16269A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3351,21 +3368,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F516828-D1E7-402E-A915-1E66FD5EF42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3B341-580E-4953-B89D-BC83BEC5B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1.55</v>
+        <v>1.5883</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>115</v>
@@ -3163,18 +3163,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3336,18 +3336,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3B341-580E-4953-B89D-BC83BEC5B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49147AD1-4142-4669-9978-18363E14A1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="232">
   <si>
     <t>field</t>
   </si>
@@ -694,6 +694,42 @@
   </si>
   <si>
     <t>flap_surface_S</t>
+  </si>
+  <si>
+    <t>vertical_yaw_angle</t>
+  </si>
+  <si>
+    <t>verticaloads_dr</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>[0; 20]</t>
+  </si>
+  <si>
+    <t>vertical_CY_vector</t>
+  </si>
+  <si>
+    <t>[0.00003615686; 0.01291153]</t>
+  </si>
+  <si>
+    <t>vertical_CY0</t>
+  </si>
+  <si>
+    <t>vertical_CYdr</t>
+  </si>
+  <si>
+    <t>maximum_delta_rudder</t>
+  </si>
+  <si>
+    <t>CY_vertical_tailplane</t>
+  </si>
+  <si>
+    <t>case3_CY_vert_tp</t>
+  </si>
+  <si>
+    <t>vert_tp_K</t>
   </si>
 </sst>
 </file>
@@ -1131,16 +1167,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="84.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
@@ -3156,6 +3192,105 @@
         <v>153</v>
       </c>
     </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187">
+        <v>15</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B188" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>224</v>
+      </c>
+      <c r="B189" t="s">
+        <v>225</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>226</v>
+      </c>
+      <c r="B190">
+        <v>3.6156860000000003E-5</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>227</v>
+      </c>
+      <c r="B191">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>228</v>
+      </c>
+      <c r="B192">
+        <v>30</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>229</v>
+      </c>
+      <c r="B193">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>230</v>
+      </c>
+      <c r="B194">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>231</v>
+      </c>
+      <c r="B195">
+        <v>0.3</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3163,18 +3298,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3336,18 +3471,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49147AD1-4142-4669-9978-18363E14A1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB5696-8260-4C18-BAF6-094C0B784A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="231">
   <si>
     <t>field</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>verticaloads_dr</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>[0; 20]</t>
@@ -1170,7 +1167,7 @@
   <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3208,18 +3205,18 @@
         <v>221</v>
       </c>
       <c r="B188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>223</v>
+      </c>
+      <c r="B189" t="s">
         <v>224</v>
-      </c>
-      <c r="B189" t="s">
-        <v>225</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>115</v>
@@ -3227,7 +3224,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B190">
         <v>3.6156860000000003E-5</v>
@@ -3238,7 +3235,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B191">
         <v>6.4400000000000004E-4</v>
@@ -3249,7 +3246,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B192">
         <v>30</v>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B193">
         <v>2.4500000000000001E-2</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194">
         <v>2.3300000000000001E-2</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B195">
         <v>0.3</v>

--- a/initialization/Aircraft_test.xlsx
+++ b/initialization/Aircraft_test.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB5696-8260-4C18-BAF6-094C0B784A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40000291-C6A5-42EE-B2D8-F9A6FFCF394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,9 +111,6 @@
     <t>Aircraft.Certification.Aerodynamic_data.CL.value</t>
   </si>
   <si>
-    <t>[0.43483; 0.84054; 1.21541; 1.52777; 1.61373; 1.52500; 1.47190]</t>
-  </si>
-  <si>
     <t>Aircraft.Certification.Aerodynamic_data.CD.value</t>
   </si>
   <si>
@@ -727,6 +721,9 @@
   </si>
   <si>
     <t>vert_tp_K</t>
+  </si>
+  <si>
+    <t>[0.91483; 1.12054; 1.41541; 1.61577; 1.67973; 1.5800; 1.53590]</t>
   </si>
 </sst>
 </file>
@@ -830,41 +827,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Aircraft"/>
-      <sheetName val="Maneuver&amp;Gust"/>
-      <sheetName val="BalancingLoads"/>
-      <sheetName val="WingLoads"/>
-      <sheetName val="HorizontalLoads"/>
-      <sheetName val="VerticalLoads"/>
-      <sheetName val="AileronLoads"/>
-      <sheetName val="ElevatorSystemLoads"/>
-      <sheetName val="RudderSystemLoads"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="K24">
-            <v>0.82195210959999987</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1194,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1263,7 +1225,7 @@
         <v>3.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1274,7 +1236,7 @@
         <v>-1.5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1285,7 +1247,7 @@
         <v>1.5883</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1296,7 +1258,7 @@
         <v>-1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1307,7 +1269,7 @@
         <v>42.3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1318,7 +1280,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1333,7 +1295,7 @@
         <v>15.24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1344,7 +1306,7 @@
         <v>7.62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1360,46 +1322,46 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>2.589</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>5.2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>10.446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1415,664 +1377,663 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0.25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0.52900000000000003</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>1.492</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>2.8839999999999999</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0.33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>0.05</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="9">
         <v>0.8</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="9">
-        <f>[1]Aircraft!$K$24</f>
         <v>0.82195210959999987</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="9">
-        <v>1.4327000000000001</v>
+        <v>1.5565</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>-0.261519</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0.498</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0.498</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>0.14069999999999999</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>0.90800000000000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>0.154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>1.9E-2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>1.63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>2.5379999999999998</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>0.627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>0.97599999999999998</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>9.1300000000000006E-2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>3.64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>0.42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>0.6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57">
         <v>0.15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>0.18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59">
         <v>1.6379999999999999</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>0.16500000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>0.2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>0.12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>1.49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <f>B59+B67</f>
         <v>3.1280000000000001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>0.15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70">
         <v>1.496</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>0.31359999999999999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72">
         <v>0.39290000000000003</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77">
         <v>0.1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78">
         <v>0.9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79">
         <v>0.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80">
         <v>0.3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2083,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2091,229 +2052,229 @@
         <v>25</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C88" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>1300</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91">
         <v>3500</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>11.185499999999999</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94">
         <v>5800</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>9.3212480000000006</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>5500</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
         <v>110</v>
-      </c>
-      <c r="B97" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99">
         <v>2.4285999999999999</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100">
         <v>1.33</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101">
         <v>1.4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102">
         <v>18.5</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103">
         <v>4.5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104">
         <v>0.37</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106">
         <v>2.5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2321,18 +2282,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108">
         <v>2.5</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109">
         <v>-0.60560000000000003</v>
@@ -2343,7 +2304,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110">
         <v>-0.40939999999999999</v>
@@ -2354,95 +2315,95 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111">
         <v>1.9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112">
         <v>2.1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113">
         <v>0.14399999999999999</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114">
         <v>0.12</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>0.35</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B116">
         <v>0.12</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117">
         <v>0.8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118">
         <v>0.126</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119">
         <v>-0.46100000000000002</v>
@@ -2453,7 +2414,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120">
         <v>-0.26900000000000002</v>
@@ -2464,95 +2425,95 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121">
         <v>0.1022</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122">
         <v>0.31359999999999999</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123">
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B124">
         <v>0.14000000000000001</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125">
         <v>0.35</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126">
         <v>0.12</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127">
         <v>0.8</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128">
         <v>25</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129">
         <v>-0.45379999999999998</v>
@@ -2563,7 +2524,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130">
         <v>-2.3999999999999998E-3</v>
@@ -2574,718 +2535,718 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131">
         <v>0.31</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B132">
         <v>0.31</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B133">
         <v>0.39290000000000003</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B134">
         <v>0.31359999999999999</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B135">
         <v>0.34</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136">
         <v>0.36</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B137">
         <v>0.31359999999999999</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B138">
         <v>0.15347</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B139">
         <v>0.45</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B140">
         <v>0.5</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B141">
         <v>0.1</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142">
         <v>0.9</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B143">
         <v>0.498</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B144">
         <v>0.498</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" t="s">
         <v>171</v>
-      </c>
-      <c r="B145" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" t="s">
         <v>173</v>
-      </c>
-      <c r="B146" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B147">
         <v>0.33</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148">
         <v>0.33</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149">
         <v>0.33</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150">
         <v>0.3</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B164">
         <v>20</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B170">
         <v>0.95</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B171">
         <v>0.31359999999999999</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B172">
         <v>0.15347250000000001</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B174">
         <v>0.437502</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B176">
         <v>0.1</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B177">
         <v>0.625</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B178">
         <f>B176*B19*0.5</f>
         <v>0.26</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B179">
         <f>B177*0.5*B19</f>
         <v>1.625</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B180">
         <f>B179-B178</f>
         <v>1.365</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B181">
         <v>0.31</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B182">
         <v>0.31</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B183">
         <f>B181*B42</f>
         <v>0.15437999999999999</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B184">
         <f>B43*B182</f>
         <v>0.15437999999999999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B185">
         <f>B184</f>
         <v>0.15437999999999999</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B186">
         <f>B185*B180</f>
         <v>0.21072869999999999</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" t="s">
         <v>221</v>
       </c>
-      <c r="B188" t="s">
-        <v>222</v>
-      </c>
       <c r="C188" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>222</v>
+      </c>
+      <c r="B189" t="s">
         <v>223</v>
       </c>
-      <c r="B189" t="s">
-        <v>224</v>
-      </c>
       <c r="C189" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B190">
         <v>3.6156860000000003E-5</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B191">
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B192">
         <v>30</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B193">
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B194">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B195">
         <v>0.3</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3295,18 +3256,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3468,18 +3429,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F82C4-45FA-403F-BA0D-FD5B535E5FD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105D9D7B-DF78-4314-955A-9D0D31EED297}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
